--- a/web/static/data/youtube/classification_results.xlsx
+++ b/web/static/data/youtube/classification_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="303">
   <si>
     <t>komentar</t>
   </si>
@@ -22,280 +22,907 @@
     <t>prediksi_sentimen</t>
   </si>
   <si>
-    <t>Sangat bermanfaat</t>
-  </si>
-  <si>
-    <t>👍🏻👍🏻</t>
-  </si>
-  <si>
-    <t>AZRAini mau lokasi</t>
-  </si>
-  <si>
-    <t>Sederhana</t>
-  </si>
-  <si>
-    <t>Sangat bagus sekali</t>
+    <t>Sangat membantuku</t>
+  </si>
+  <si>
+    <t>Memuaskan</t>
+  </si>
+  <si>
+    <t>Ini sangat seru</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Musik, dan. Video.</t>
+  </si>
+  <si>
+    <t>mantap</t>
+  </si>
+  <si>
+    <t>Bgmn memperbaiki you tobe yg sdh hagus?</t>
+  </si>
+  <si>
+    <t>bagus untuk menonton film film</t>
+  </si>
+  <si>
+    <t>Mantap</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Napa go bisa buka yutube</t>
+  </si>
+  <si>
+    <t>Best of the best</t>
+  </si>
+  <si>
+    <t>Kenapa yutup tidak bisa di buka</t>
+  </si>
+  <si>
+    <t>Yutube</t>
+  </si>
+  <si>
+    <t>Tidak bisa di buka</t>
+  </si>
+  <si>
+    <t>Bagus sekali</t>
+  </si>
+  <si>
+    <t>kasih bintang 3 dulu</t>
+  </si>
+  <si>
+    <t>Oke</t>
+  </si>
+  <si>
+    <t>Videonya bagus2,terutama gus aldi mantap banget</t>
+  </si>
+  <si>
+    <t>Yt ku gk bisa woy harus diperbarui tapi udh diperbarui gkbisa</t>
+  </si>
+  <si>
+    <t>wokeeee</t>
+  </si>
+  <si>
+    <t>Tambah susah di buka yutub semenjak abdet</t>
+  </si>
+  <si>
+    <t>knpa ngga bisa di buka</t>
+  </si>
+  <si>
+    <t>Tolong dari pihak youtube kenapa setiap mau buka youtube selalu ga bisa?setiap Mau nonton youtube harus selalu download kenapa?</t>
+  </si>
+  <si>
+    <t>Selalu minta update</t>
+  </si>
+  <si>
+    <t>Bagus banget nh</t>
+  </si>
+  <si>
+    <t>Tolong perbaiki bugnya, stelah saya mngirim komentar kadang2 komentar yg saya kirim hilang ga bisa di baca lagi, dan beberapa komentar dari orang lainpun yg tadinya terbaca juga kadang hilang.</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
+    <t>Keren..smg tetap jaya</t>
+  </si>
+  <si>
+    <t>Saya ingin dapat aplikasi ini</t>
+  </si>
+  <si>
+    <t>Mantul</t>
+  </si>
+  <si>
+    <t>Seneng lok lihat youtub..seneng lihat film</t>
+  </si>
+  <si>
+    <t>Tidak bisa</t>
+  </si>
+  <si>
+    <t>Updet dong pihak developernya</t>
+  </si>
+  <si>
+    <t>Knpa ga bisa abgreb</t>
+  </si>
+  <si>
+    <t>Kurang</t>
+  </si>
+  <si>
+    <t>Sangat baik</t>
+  </si>
+  <si>
+    <t>Tampilkan yutup Musik</t>
+  </si>
+  <si>
+    <t>tolong, kenapa cara download nya sangat lambat dan bug, juga kurang bagus, dan Vidio nya, sudah sedikt pata²</t>
+  </si>
+  <si>
+    <t>App Susah di buka</t>
+  </si>
+  <si>
+    <t>bagus 😬</t>
+  </si>
+  <si>
+    <t>Yuytup memangasik</t>
+  </si>
+  <si>
+    <t>Tolong diperbaiki</t>
+  </si>
+  <si>
+    <t>Thank's mantap</t>
+  </si>
+  <si>
+    <t>Baik tp sdkit bug</t>
+  </si>
+  <si>
+    <t>Ytb nya sering eror gimana yang mau nonton vidio nya</t>
+  </si>
+  <si>
+    <t>YouTube gw ngeleg anjeng juga kadang kadang keluar sendiri dikirain mainan gw tuh buat belajar malah ngelag</t>
+  </si>
+  <si>
+    <t>Makin kesini makin sombong YouTube versi android 7 8 udh ga bisa tr jg ditingggalin lu</t>
+  </si>
+  <si>
+    <t>YouTube aplikasi yang terbaik</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>banyak video</t>
+  </si>
+  <si>
+    <t>yutube sangat lebih baik ingin lihat vidio vidio</t>
+  </si>
+  <si>
+    <t>Sangat bagus</t>
+  </si>
+  <si>
+    <t>Kebanyakan iklan</t>
+  </si>
+  <si>
+    <t>Tdk bisa di buka</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Patah patah</t>
+  </si>
+  <si>
+    <t>Yah tahun ini jadi nya youtub saya jadi expait</t>
+  </si>
+  <si>
+    <t>Gak bisa buka You Tube</t>
+  </si>
+  <si>
+    <t>kerja d pt aidenpersada</t>
+  </si>
+  <si>
+    <t>Bgus</t>
+  </si>
+  <si>
+    <t>Sangat membantu</t>
+  </si>
+  <si>
+    <t>Jelek banget pas aku masuk tiba tiba muncul robot hapis ku betulin eh tiba tiba ke undonlow pls perbaikin dan juga jangan loading terus video ku gak ke upload Dan</t>
+  </si>
+  <si>
+    <t>Sering error' YouTube ini di-update sering eror trs</t>
+  </si>
+  <si>
+    <t>Siuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>Okok</t>
+  </si>
+  <si>
+    <t>Sangat membantu saya</t>
+  </si>
+  <si>
+    <t>Kenapa yutub gak bisa ya</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>GA bisa donload</t>
+  </si>
+  <si>
+    <t>Harus updet terus</t>
+  </si>
+  <si>
+    <t>Hobi ngok yutup</t>
+  </si>
+  <si>
+    <t>Manfaat</t>
+  </si>
+  <si>
+    <t>Karena YouTube tidak bisa digunakan</t>
+  </si>
+  <si>
+    <t>You tube susah di UP dTe parah yah</t>
+  </si>
+  <si>
+    <t>Sangat nyaman dn smple</t>
+  </si>
+  <si>
+    <t>Kenapa youtube ini tidak bs di gunakan</t>
+  </si>
+  <si>
+    <t>Untuk konten nya lebih disaring lagi developer</t>
+  </si>
+  <si>
+    <t>Bagus banget</t>
+  </si>
+  <si>
+    <t>wah gg bang</t>
+  </si>
+  <si>
+    <t>Lumayan</t>
+  </si>
+  <si>
+    <t>Tidak bisa dibuka</t>
+  </si>
+  <si>
+    <t>Sanjay bagus!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>G bisa dibuka</t>
+  </si>
+  <si>
+    <t>Sangat mudah dan sangat bagus aplikasinya</t>
+  </si>
+  <si>
+    <t>Bagus mantap</t>
+  </si>
+  <si>
+    <t>Youtube blm terpasang</t>
+  </si>
+  <si>
+    <t>Punya ku kenapa GK bisa di update ya guys</t>
+  </si>
+  <si>
+    <t>Aplikasi youtube sangat membantu untuk menonton video</t>
+  </si>
+  <si>
+    <t>YouTube benar-benar canggih sekali sekarang tapi susah sekali mau nyetel akun atau pp nya agak susah mengelola vidio/foto juga agak susah usah ditunggu malah gk bisa2, saya pernah memakai YouTube buat hafalan mengaji pas saya cari ternyata yg dimunculkan berbeda dengan ya kucari (aku cari contoh izhar didalam alquran malah jawabannya ngaur) tolong jangan dipersulit untuk aplikasi-aplikasi saat ini karena aplikasi itu juga berpengaruh terhadap pemakainya</t>
+  </si>
+  <si>
+    <t>Semoga update yt aman</t>
+  </si>
+  <si>
+    <t>Terima</t>
+  </si>
+  <si>
+    <t>Tolong youtube nya</t>
+  </si>
+  <si>
+    <t>Di update bukan tambah bagus malah tambah jelek. Hapus history konten short video baru hapus satu yang lain gak muncul. Malah ilang gak keliatan, jadi bikin lama kalau mau hapus history konten short video, pea</t>
+  </si>
+  <si>
+    <t>Cika</t>
+  </si>
+  <si>
+    <t>gabut doang ngasih bintang 1</t>
+  </si>
+  <si>
+    <t>Gue sangat senang channel ku meningkat sampai 700 subscriber, terimakasih apk YouTube, sekarang aku bisa upload video di channel ku lagi 👍👍👍</t>
+  </si>
+  <si>
+    <t>Sudah tak update kenapa gk bisa juga</t>
+  </si>
+  <si>
+    <t>YouTube udah di update tidak bisa di play</t>
+  </si>
+  <si>
+    <t>Sangat membantu informasinya</t>
+  </si>
+  <si>
+    <t>Hei YouTube kapan update lagi soalnya YouTube ku usang gara gara belum jadi pas aku mau update teryata nggak ada update tolong hari ini di update kasihan dengan orang yg YouTube nya usang</t>
+  </si>
+  <si>
+    <t>Aplikasi sering elor aku dah masuk Akuan suruh masuk terus tolong perbaiki</t>
+  </si>
+  <si>
+    <t>Hp gua gak bisa buka ytb . Masak buka ytb harus lewat google crome mulu</t>
+  </si>
+  <si>
+    <t>Tidak dapat diakses</t>
+  </si>
+  <si>
+    <t>kenapa you tube saya gk bisa di bukak,gimana caranya biar bisa dibukak</t>
+  </si>
+  <si>
+    <t>ini sangat tolol</t>
+  </si>
+  <si>
+    <t>Tidak bisa digunakan</t>
+  </si>
+  <si>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>rada2 sih</t>
+  </si>
+  <si>
+    <t>Keren banget nih</t>
+  </si>
+  <si>
+    <t>Semoga Allah memberikan pahala 😆</t>
+  </si>
+  <si>
+    <t>disuruh afgret trus,buru2 afgret trus ujung2nya ga mau juga.</t>
+  </si>
+  <si>
+    <t>bugus selalu di hati</t>
+  </si>
+  <si>
+    <t>oi min nih gimnaa nih yutup gw gabisa di intals</t>
+  </si>
+  <si>
+    <t>Gk bisa d bukak</t>
+  </si>
+  <si>
+    <t>Sip lah</t>
+  </si>
+  <si>
+    <t>Tidak bisa buka you tube</t>
+  </si>
+  <si>
+    <t>Kok apduet terus sih YouTube ny .masih asik nonton eh d suruh perbarui YouTube tolong dong jangan seperti ini .</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Ko ga bisa putar video</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bagussss</t>
+  </si>
+  <si>
+    <t>j yang tidak</t>
+  </si>
+  <si>
+    <t>Yutube tidak bs diaktifkan..kenaoa ya</t>
+  </si>
+  <si>
+    <t>Untuk handpone samsung J2 Pro you tube tidak bisa digunakan, tolong update agar bisa digunakan</t>
+  </si>
+  <si>
+    <t>Masa gk bs downlod harus bayar dlu</t>
+  </si>
+  <si>
+    <t>Boleh</t>
+  </si>
+  <si>
+    <t>Main gem</t>
+  </si>
+  <si>
+    <t>Kenapa YouTube saya ada tulisan jadi gak bisa di buka</t>
+  </si>
+  <si>
+    <t>Ingin menambah pengetahuan tentang dunia luar</t>
+  </si>
+  <si>
+    <t>Senang monton you tube</t>
+  </si>
+  <si>
+    <t>Suka sekali bagus 👍</t>
+  </si>
+  <si>
+    <t>Bagus suka</t>
+  </si>
+  <si>
+    <t>yang penting dapet limaa</t>
+  </si>
+  <si>
+    <t>TRIms penyedia sy sebagai pengguna sangat puas</t>
+  </si>
+  <si>
+    <t>Sangatbaik</t>
+  </si>
+  <si>
+    <t>Kenapa sekarang setiap mau masuk YouTube harus selalu login trus padahal dulu gak pernah,sekarang jadi jarang buka YouTube karna harus selalu login trus, padahal baru keluar buat ke apk lain eh pas mau nonton YouTube lagi harus selalu login trus,jadi capek padahal baru beberap menit keluar YouTube, tolong di perbaiki lagi ya</t>
+  </si>
+  <si>
+    <t>Semoga tidak updet lagi</t>
+  </si>
+  <si>
+    <t>Bagus aee</t>
+  </si>
+  <si>
+    <t>Youtube gak bisa di buka</t>
+  </si>
+  <si>
+    <t>bikin emosi</t>
+  </si>
+  <si>
+    <t>youtube nya gk bisa di pakai Kata nya udah usang terus Pas di upgrade gk bisa di Buka😡😡😤</t>
+  </si>
+  <si>
+    <t>youtube ini kenapa kok di updete trus padahal udah di updete berkali kali kenapa yutube ini tolong benerin buat adik saya kasian</t>
+  </si>
+  <si>
+    <t>Ini aplikasi yang ku sukai 👍👍👍</t>
+  </si>
+  <si>
+    <t>Knpa ch YouTube skrg klo mau di buka hrs update trs</t>
+  </si>
+  <si>
+    <t>Menghibor ini</t>
+  </si>
+  <si>
+    <t>Bagus semua 😁😁😁</t>
+  </si>
+  <si>
+    <t>Wawasan dan hiburan</t>
+  </si>
+  <si>
+    <t>Kenapa upload video saya yang sudah ditonton kok gak bertambah di jumlah ditonton keseluruhan upload video semua??? Malah tetap saja</t>
+  </si>
+  <si>
+    <t>Youtube saya gak bisa kebuka knp ya</t>
+  </si>
+  <si>
+    <t>Tidak Bisa di buka</t>
+  </si>
+  <si>
+    <t>Seru asik dan menghibur</t>
+  </si>
+  <si>
+    <t>Buka you tube di hp saya suli</t>
+  </si>
+  <si>
+    <t>G bisa d buka</t>
+  </si>
+  <si>
+    <t>aplikasi nya youtube nga bisa d buka</t>
+  </si>
+  <si>
+    <t>Kenapa y yutub saya gk bisa</t>
+  </si>
+  <si>
+    <t>Dangdut</t>
+  </si>
+  <si>
+    <t>Sunggu aplikasi kurang mengenakan, dikit² update</t>
+  </si>
+  <si>
+    <t>Nih gk tau kenapa akhir-akhir ini nnton vt di yt berasa lelet bgt, pdhl kualitas internet ok tp masih aj ttp ngeleg</t>
+  </si>
+  <si>
+    <t>Ingin lagu lagu dangdut persi ternary</t>
+  </si>
+  <si>
+    <t>Youtube tidak bisa di buka</t>
+  </si>
+  <si>
+    <t>Noton fidio</t>
+  </si>
+  <si>
+    <t>Gk bisa</t>
+  </si>
+  <si>
+    <t>Tankyou</t>
+  </si>
+  <si>
+    <t>Mmm YouTube, kenapa saat saya sedang asik scroll YouTube short. Gambar nya nge glitch, membuat tidak enak di pandang. Kejadian ini sering terjadi</t>
+  </si>
+  <si>
+    <t>Bagus 😎</t>
+  </si>
+  <si>
+    <t>cukup. Baik</t>
+  </si>
+  <si>
+    <t>Semenjak updat yt gk bsa di buka</t>
+  </si>
+  <si>
+    <t>sangat bagus lancar</t>
+  </si>
+  <si>
+    <t>Iklannya semakin ngga ngotak</t>
   </si>
   <si>
     <t>sangat bagus</t>
   </si>
   <si>
-    <t>utc</t>
-  </si>
-  <si>
-    <t>Sejak di update banyak bug</t>
-  </si>
-  <si>
-    <t>Bgus</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Bagus sekali</t>
-  </si>
-  <si>
-    <t>Sangat membantu</t>
-  </si>
-  <si>
-    <t>Sangat membantu mempermudah komunikasi....!!</t>
-  </si>
-  <si>
-    <t>Bagus soallna</t>
-  </si>
-  <si>
-    <t>KENAPA JADI GABISA NGEBLOKIR KONTAK? KATANYA UDAH UPDATE TAPI MALAH BUG GABISA BLOKIR KONTAK TOLONG PIHAK WHATSAPP LEBIH TELITI LAGI DAN MOHON DI PERBAIKI BUG NYA SEGERA!</t>
-  </si>
-  <si>
-    <t>Assalamualaikum aku pengguna WhatsApp jangan di blok no ku?</t>
-  </si>
-  <si>
-    <t>Jangan selalu ditandai spam nomor orang yang digunakan untuk bekerja. Banyak nomor yang tidak disimpan karena SOP perusahaan tidak boleh menyimpan nomor customer. Coba diperbaiki sistem deteksi spamnya; misalkan dibuatkan verifikasi identitas keaslian pemegang nomor biar tidak mengganggu pekerjaan orang yang bergantung pada whatsapp ini.</t>
-  </si>
-  <si>
-    <t>Jelek</t>
-  </si>
-  <si>
-    <t>Sangat mengecewakan ganti nomor beberapa kali kena banned lagi dgn alasan spam tolong diperbaiki lagi kinerja nya</t>
-  </si>
-  <si>
-    <t>Coba sekali lagi kosaya blm bs make ini lagi</t>
-  </si>
-  <si>
-    <t>Aplikasi keren banget</t>
-  </si>
-  <si>
-    <t>tidak ada meta ai</t>
-  </si>
-  <si>
-    <t>Makin upp makin hancur kaka🥺</t>
-  </si>
-  <si>
-    <t>Bagus cuman saya sulit banget mendaftra WhatsApp</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Biasa-biasa saja</t>
-  </si>
-  <si>
-    <t>tidak bisa memverifikasi</t>
-  </si>
-  <si>
-    <t>Mantap</t>
-  </si>
-  <si>
-    <t>Semoga kedepannya aplikasi ini lebih wah lagi.. seperti di adakannya fitur live wa? Sepertinya jika ada itu akan lebih menarik bukan?</t>
-  </si>
-  <si>
-    <t>Katanya metta AL dpt menghasil kan uang.bagaimana caaetanya</t>
-  </si>
-  <si>
-    <t>Update lagi dong biar makin bagus</t>
-  </si>
-  <si>
-    <t>Saya cuman mengeluh tentang sering nya chat ke spam, Sedangkan saya ini guru murid saya itu banyak tidak mungkin saya save semua murid saya, jadi ketika saya mengchat murid murid saya, atau mengirim link grub ke murid, malah saya di blok berkali kali oleh pihak WhatsApp, mohon bisa di perbaiki lagi🙏🏼 Dan sekarang grub kelas siswa saya juga di blok, parah si WhatsApp sekarang,</t>
-  </si>
-  <si>
-    <t>WhatsApp sekarang jahat banget,saya padahal gak melakukan spam apapun tapi selalu terkena pamblokiran,kalo emang bener perangkat saya termasuk sebagai perangkat berbahaya,kenapa setelah pemakaian bertahun2 baru diperlakukan kayak gini. kecewa dan capek banget sama whatsApp. berkali2 ngajuin banding demi bisa nyelamatin nomor yang difitnah melakukan spam.</t>
-  </si>
-  <si>
-    <t>Bagus</t>
-  </si>
-  <si>
-    <t>Sangat membatu</t>
-  </si>
-  <si>
-    <t>Mantap punya</t>
-  </si>
-  <si>
-    <t>Samsung A05S. Whatsapp always reduce photos taken inside the app, so HD button always disabled. Photos taken with Camera App are normal. Already set HD in Media Download Settings, dont ask me that. Please Fix.</t>
-  </si>
-  <si>
-    <t>Terbaik</t>
-  </si>
-  <si>
-    <t>Mantap...</t>
-  </si>
-  <si>
-    <t>tidak ada meta AI</t>
-  </si>
-  <si>
-    <t>WhatsApp ini bagus tpi kenapa ya nama orang di kontak wa saya suka ke ubah ubah sendiri, tlong pembaharuan nya🙏</t>
-  </si>
-  <si>
-    <t>Gblok</t>
-  </si>
-  <si>
-    <t>Selalu dibanned .....padahal saya tidak pernah melanggar aturan WhatsApp......asli bikin ruwet</t>
-  </si>
-  <si>
-    <t>Baik baik saja</t>
-  </si>
-  <si>
-    <t>Sering kena spam padahal GK melakukan kesalahan.tolong di perbaiki lagi dong</t>
-  </si>
-  <si>
-    <t>WA ini sangat membantu</t>
-  </si>
-  <si>
-    <t>Aplikasi wa g bisa dibuka</t>
-  </si>
-  <si>
-    <t>Mantab sayang</t>
-  </si>
-  <si>
-    <t>banyak bug nya</t>
-  </si>
-  <si>
-    <t>Karna gk ada meta AI nya</t>
-  </si>
-  <si>
-    <t>Kenapa WA kena spam terus sedakan saya tidak melakukan apapun bagaimana caranya agar akun saya bisa pulih</t>
-  </si>
-  <si>
-    <t>aku kirim foto di chanel ke send, trus ga bisa dihapus juga gara-gara itu foto langsung dari whatsapp, jadi chanel aku jelek 👹👺 pls whatsapp bikin jadi nyaman🙏🏻🙏🏻</t>
-  </si>
-  <si>
-    <t>Spam trus sangat mengganggu</t>
-  </si>
-  <si>
-    <t>Saya juga sih kalo ada orang tua aja ya biar ada di pikiran gue aja baru aja pulang dari bandung ya buat kamu mah yang bisa membuat saya juga sih kalo ada orang tua aja deh kalo gue juga bingung nih anak gaul banget sama dia itu mah buat gue berubah hanya bisa tidur gara apa aja yang ikut aja sih ya jadi kamu aja ya biar ada kegiatan apa aja yang mau jadi anak muda itu mah buat gue berubah menjadi jebakan iya dong gue cantik itu mah buat gue berubah menjadi lebih suka cowok ganteng aja nih piran</t>
-  </si>
-  <si>
-    <t>pls adain fitur remove orang di saluran</t>
-  </si>
-  <si>
-    <t>Sangat bagus</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Ini nomornya tidak bisa singkoron</t>
-  </si>
-  <si>
-    <t>sering di bisukan sendri tolong dperbaiki karena mengganggu komunikasi yg lagi berjln sangat mengganggu</t>
-  </si>
-  <si>
-    <t>Susah login kode ga nyampe an**ng</t>
-  </si>
-  <si>
-    <t>Baguss</t>
-  </si>
-  <si>
-    <t>Setelah di update knpa jadi error gini... Story pembaruan gak muncul, di chat tidak bisa masuk</t>
-  </si>
-  <si>
-    <t>ok ok</t>
-  </si>
-  <si>
-    <t>Upload vid di WA gambarnya pecah banget</t>
-  </si>
-  <si>
-    <t>Senang, cepat, bisa berkomunikasi dan baik.</t>
-  </si>
-  <si>
-    <t>tidak ada emoji</t>
-  </si>
-  <si>
-    <t>knap no saya di blokir trus sih bikin emosi trus</t>
-  </si>
-  <si>
-    <t>Tidak aamn</t>
+    <t>Sangatt bergunaa</t>
+  </si>
+  <si>
+    <t>Ruibet</t>
+  </si>
+  <si>
+    <t>Suka nonton</t>
+  </si>
+  <si>
+    <t>Kenapa di jw2 prime tidak bus</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>Lima 5</t>
+  </si>
+  <si>
+    <t>Kalo bagus nanti di tambah lagi</t>
+  </si>
+  <si>
+    <t>You tube trbaru</t>
+  </si>
+  <si>
+    <t>Semenjak uppdete tahun 2025 jadi gak seru padahalmah ruang penyimpanan nanya masih banyak tapi setiap nonton video Short jadi ngecrash tolong yang bikin ini di perbaiki lagi agar tidak ngebag lagi</t>
+  </si>
+  <si>
+    <t>bgus</t>
+  </si>
+  <si>
+    <t>Aku udah berkli kali updet tapi kok sering gak bisa di buka you tube</t>
+  </si>
+  <si>
+    <t>Bagus saya sangat puas</t>
+  </si>
+  <si>
+    <t>gak bisa dibukak youTube nya</t>
+  </si>
+  <si>
+    <t>Versi YouTube nya usang kasih tau dong cara update nya punya saya ga bisa😭 Makin ga seru main hp 🙄</t>
+  </si>
+  <si>
+    <t>Knapa update terus</t>
+  </si>
+  <si>
+    <t>Ga bisa update</t>
+  </si>
+  <si>
+    <t>Saya punya aplikasi YouTube ini tidak bisa di buka ..tlg bantu kami</t>
+  </si>
+  <si>
+    <t>Sangat mambantu</t>
+  </si>
+  <si>
+    <t>Biasa saja</t>
   </si>
   <si>
     <t>bagus</t>
   </si>
   <si>
-    <t>Di</t>
-  </si>
-  <si>
-    <t>oye lek</t>
-  </si>
-  <si>
-    <t>Dengan aplikasi wa ini saya banyak membantu dlm pekerjaan terutama mengirim dan menerima file</t>
-  </si>
-  <si>
-    <t>Mengapa tidak bisa mendwonlod whatshap mesengger</t>
-  </si>
-  <si>
-    <t>The best</t>
-  </si>
-  <si>
-    <t>Bug jirr kenapa kita chat teman tidak masuk,tpi teman chat kita bisa msuk, dan itu berlaku d nomor teman saya SJ,yg kontak lain aman" sj</t>
-  </si>
-  <si>
-    <t>Bagus.</t>
-  </si>
-  <si>
-    <t>Bgmn kerja sepatuh hari d rumah</t>
-  </si>
-  <si>
-    <t>Tolong lah, dibenerin bug audio dan pesan suara yang disetel malah bikin layar mati, ganggu banget</t>
-  </si>
-  <si>
-    <t>Better lah</t>
-  </si>
-  <si>
-    <t>Oke</t>
-  </si>
-  <si>
-    <t>Sangat baik</t>
-  </si>
-  <si>
-    <t>efek wa tidak tersedia tolong sekali</t>
-  </si>
-  <si>
-    <t>Aantappppp</t>
-  </si>
-  <si>
-    <t>sangat membantu berkomonikasi</t>
+    <t>Tidak bisa donlod YouTube</t>
+  </si>
+  <si>
+    <t>Berrgam isinya sangat menarik utk di tonton serta menghibur</t>
+  </si>
+  <si>
+    <t>Ya bagus pokok nya</t>
+  </si>
+  <si>
+    <t>Bagos</t>
+  </si>
+  <si>
+    <t>youtube short parah,kayak kaset rusak kalo buat liat short video</t>
+  </si>
+  <si>
+    <t>Apk nya crash item semua suaranya doang</t>
+  </si>
+  <si>
+    <t>Top Banget</t>
+  </si>
+  <si>
+    <t>Lombok</t>
+  </si>
+  <si>
+    <t>Youtube ku ngga bisa di pakai karena versi lawas</t>
+  </si>
+  <si>
+    <t>Banyak bugnya</t>
+  </si>
+  <si>
+    <t>YouTube yg terbaik</t>
+  </si>
+  <si>
+    <t>Bagus Banget</t>
+  </si>
+  <si>
+    <t>Tolong dong, youtube saya kenapa jd blenx ya gabisa nonton sama sekali,</t>
+  </si>
+  <si>
+    <t>Knpa ea yutube aku suka usang gth</t>
+  </si>
+  <si>
+    <t>Bagus suka banget</t>
+  </si>
+  <si>
+    <t>bagus banget</t>
+  </si>
+  <si>
+    <t>Saat nya beralih ke youtube go</t>
+  </si>
+  <si>
+    <t>lemot banget</t>
+  </si>
+  <si>
+    <t>tiidak tau Carannya B9s</t>
+  </si>
+  <si>
+    <t>lumayan</t>
+  </si>
+  <si>
+    <t>saya sudah update youtube ini tapi malah tidak bisa di gunakan katanya sudah usang di perangkat saya, jadi apa yg harus saya lakukan</t>
+  </si>
+  <si>
+    <t>Youtube.. serruu karna banyak musik dll.</t>
+  </si>
+  <si>
+    <t>Aduhh kok g bisa ya</t>
+  </si>
+  <si>
+    <t>kenapa youtube di HP saya ngk bisa terbuka padahal kuota nya banyak</t>
+  </si>
+  <si>
+    <t>YouTube yang terbaik👍💯 untuk ku</t>
+  </si>
+  <si>
+    <t>Youtube versi 2026</t>
+  </si>
+  <si>
+    <t>Kenapa ini gc bisa d buka y</t>
+  </si>
+  <si>
+    <t>Keadaan luarsa</t>
+  </si>
+  <si>
+    <t>Samsat bagus</t>
+  </si>
+  <si>
+    <t>Kurang baik</t>
+  </si>
+  <si>
+    <t>karena bisa menonton dengan nyaman</t>
+  </si>
+  <si>
+    <t>Kualitas video burik mohon di perbaiki</t>
+  </si>
+  <si>
+    <t>Kami tidak dapat meng istal Yu tubai</t>
+  </si>
+  <si>
+    <t>bqgus</t>
+  </si>
+  <si>
+    <t>Kenapa yutub saya tidak ter buka</t>
+  </si>
+  <si>
+    <t>😊</t>
+  </si>
+  <si>
+    <t>Kurang bsgus you tube</t>
+  </si>
+  <si>
+    <t>kenapa ya sekarang youtube versinya di hpku udh usang</t>
+  </si>
+  <si>
+    <t>Saya belum bisa kasih bintang 5 karena YouTube saya sedang eror</t>
+  </si>
+  <si>
+    <t>you Tube ini sangat memuaskan</t>
+  </si>
+  <si>
+    <t>Sa'at ini you tube ada gangguan di hp saya , kurang cepat loudingnya.</t>
+  </si>
+  <si>
+    <t>Baaguszzzz</t>
+  </si>
+  <si>
+    <t>kalo udah iklan gak bisa di mundurin videonya makin hari makin gakjelas aja. premium juga sama rugi mangkamya mau premium juga blok!</t>
+  </si>
+  <si>
+    <t>Kenapa sya tidak bisa mendonload youtube</t>
+  </si>
+  <si>
+    <t>membantu</t>
+  </si>
+  <si>
+    <t>Siiippp</t>
+  </si>
+  <si>
+    <t>Aku bisa liat sound sistem animasi di sini 👍</t>
+  </si>
+  <si>
+    <t>Mantaaaap dan akurat beritanya TKS moga tetap berita dunia disiarkan terus aku suka dgn gaya indiamu</t>
+  </si>
+  <si>
+    <t>Ga jls anj lh</t>
+  </si>
+  <si>
+    <t>Banyak bug,leg parah,error setelah update,</t>
   </si>
   <si>
     <t>oke</t>
   </si>
   <si>
-    <t>Wa semoga sukses terus</t>
-  </si>
-  <si>
-    <t>Lumayan sangat membantu</t>
-  </si>
-  <si>
-    <t>Terimakasih ko aneh sudah sukses instal nya ga muncul</t>
-  </si>
-  <si>
-    <t>memang terbaik</t>
-  </si>
-  <si>
-    <t>Oj</t>
+    <t>Bagus Dan jlas</t>
+  </si>
+  <si>
+    <t>Kaga bis di buka</t>
+  </si>
+  <si>
+    <t>YouTube saya ngeleg tapi kuotanya banyak memori saya juga penuh</t>
+  </si>
+  <si>
+    <t>Mantap lancat</t>
+  </si>
+  <si>
+    <t>Susah memperbarui</t>
+  </si>
+  <si>
+    <t>kenapa g bisa dibuka</t>
+  </si>
+  <si>
+    <t>tolong versi dasar appnya minimal os 5.0 sampai 18.0 kasihan hp lama ga bisa nonton YouTube. masa harus nonton lewat aplikasi lain? Rudi dong</t>
+  </si>
+  <si>
+    <t>Flm luat</t>
+  </si>
+  <si>
+    <t>yutube jelek gabisa dimainkan</t>
+  </si>
+  <si>
+    <t>sering Erorr?kenapa ya?</t>
+  </si>
+  <si>
+    <t>Bagusnya</t>
+  </si>
+  <si>
+    <t>Kurang mantap.. aplikasi YouTube nya.</t>
+  </si>
+  <si>
+    <t>eddsxiokkkkpmoouooo Aku pengen game game Aku pengen YouTube tapinya bisa nggak kebuka</t>
+  </si>
+  <si>
+    <t>SaNat baik</t>
+  </si>
+  <si>
+    <t>Bisa</t>
+  </si>
+  <si>
+    <t>Tida terbuka jelek butut</t>
+  </si>
+  <si>
+    <t>Gak bisa di buka youtubenya,parah padahal sudah di update ke terbaru</t>
+  </si>
+  <si>
+    <t>Awesome Thankyou</t>
+  </si>
+  <si>
+    <t>you Tube baik</t>
+  </si>
+  <si>
+    <t>Karna youtube sekarang 2025 tidak di dukung oleh yang lain kalau mau liat pasti harus hapus dan update lagi kadang lama banget</t>
+  </si>
+  <si>
+    <t>👍👍👍</t>
+  </si>
+  <si>
+    <t>setelah updet knp jd rumittt🙁</t>
+  </si>
+  <si>
+    <t>teruntuk developer, tolong lah update YouTube di hp saya, saat saya membuka/menonton reels, video reels nya itu jadi error, seperti ada warna" nge glitch gitu lah, saat saya buka video, bukan reels, ga error, itu sangat menggangu saya saat menonton reels di yt, mohon di perbaiki lagi yt nya, kalau saya nonton reels ig, baik" saja, kalau yt malah error</t>
+  </si>
+  <si>
+    <t>Karena gak bisa</t>
+  </si>
+  <si>
+    <t>Bagus sekalo dan membantu</t>
+  </si>
+  <si>
+    <t>ulasan bersifat publik serta menertakan inpo akun dan pelajar Indonesia yang jadi orang yang paling suka dengan orang tua</t>
+  </si>
+  <si>
+    <t>Kak trus menerus donglot kak saya</t>
+  </si>
+  <si>
+    <t>bagis</t>
+  </si>
+  <si>
+    <t>Youtube oke</t>
+  </si>
+  <si>
+    <t>bagus tingkatkan</t>
+  </si>
+  <si>
+    <t>Ya menyenangkan</t>
+  </si>
+  <si>
+    <t>Anda tau mengapa saya memberi bintang satu ya!!!! Karena sebagai user android 7 saya tidak dapat mengunakan Aplikasi tersebut, mengapa saya tidak inggin mengunakan di browser dikarenakan sulit untuk mengunakan nya di bandingkan dengan aplikasi youtube, kau kira gampang membili heanphone baru.😤😤</t>
+  </si>
+  <si>
+    <t>Pengalamansaya itu kerja keras tidak terlalu peresotak yaitu kerja bangunan kerjs kebon atau ladang iyaaa Amin</t>
+  </si>
+  <si>
+    <t>Ga bisa d buka</t>
+  </si>
+  <si>
+    <t>Sangat mmbtu dengar dakwah trims</t>
+  </si>
+  <si>
+    <t>Sangat meng hibur</t>
+  </si>
+  <si>
+    <t>boroknya</t>
+  </si>
+  <si>
+    <t>G bisa k buka masa dsuruh update trus g jelas</t>
+  </si>
+  <si>
+    <t>Jelek youtube sekarang</t>
+  </si>
+  <si>
+    <t>Mau upload video buat balas komen orang kok gak bisa tapi sama komen lain bisa lu sengkokol ya sama @Sugargaming-y3i ya kalo gak buktiin hack akunnya biar gak bisa balik lagi soalnya dia gak sadar diri</t>
+  </si>
+  <si>
+    <t>Sangat lelet</t>
+  </si>
+  <si>
+    <t>Nice yotube p</t>
+  </si>
+  <si>
+    <t>Gooiid</t>
+  </si>
+  <si>
+    <t>Aktipkan yutub</t>
+  </si>
+  <si>
+    <t>mus. leh</t>
+  </si>
+  <si>
+    <t>🤗</t>
+  </si>
+  <si>
+    <t>Gimana ini yutubnya ga bisa di buka sis....</t>
+  </si>
+  <si>
+    <t>Mas koplak 1</t>
+  </si>
+  <si>
+    <t>Vou Tube</t>
+  </si>
+  <si>
+    <t>Asik</t>
+  </si>
+  <si>
+    <t>Cukup dan bisa membantu dan bisa belajar</t>
+  </si>
+  <si>
+    <t>Jooosss ora kenek</t>
+  </si>
+  <si>
+    <t>suka ada youtube kadaluarsa harap di prbaharui sudah sy hapus dn instal ulang abdet ulang tapi bgitu lg terus mnerus smpe bberapa kali coba deh tolong jgn smpe br masalah youtube sy cape nginstal terus mnerus</t>
+  </si>
+  <si>
+    <t>Udh di updet tpi masi ga bisa di pke aplikasi nya</t>
+  </si>
+  <si>
+    <t>Bagus aplikasi ya yutub</t>
+  </si>
+  <si>
+    <t>YouTube resmi</t>
+  </si>
+  <si>
+    <t>Coba</t>
+  </si>
+  <si>
+    <t>positif</t>
   </si>
   <si>
     <t>negatif</t>
-  </si>
-  <si>
-    <t>positif</t>
   </si>
 </sst>
 </file>
@@ -672,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -680,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -688,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -696,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -704,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -712,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -720,215 +1347,215 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -936,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -944,7 +1571,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -952,7 +1579,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -960,79 +1587,79 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1040,2831 +1667,2831 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B128" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B130" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B155" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B158" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B160" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B162" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B163" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B171" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B173" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="B176" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B180" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B184" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B191" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B193" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B195" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B196" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="B197" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B198" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B199" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B200" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="B201" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B203" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B204" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="B205" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B206" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="B208" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B210" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="B212" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="B217" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B218" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B221" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B224" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B229" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="B232" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="B235" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="B236" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="B237" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B238" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="B239" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="B241" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B243" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="B244" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="B245" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="B246" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="B247" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="B248" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="B249" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B250" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B251" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="B252" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B253" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="B254" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="B255" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="B256" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="B257" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="B258" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B259" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="B260" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="B261" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B262" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="B263" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="B265" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="B266" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="B268" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="B269" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="B272" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="B273" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="B274" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="B280" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B281" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="B282" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="B283" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="B285" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B287" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B290" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B291" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="B293" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="B294" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="B295" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="B296" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="B297" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="B299" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="B301" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="B302" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="B303" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="B305" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="B306" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B307" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="B308" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="B310" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="B311" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="B312" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="B313" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B314" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B315" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="B316" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="B318" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B322" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B323" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="B324" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="B325" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B327" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="B328" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B330" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="B332" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="B333" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="B335" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="B336" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="B337" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="B338" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="B339" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="B340" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="B341" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="B342" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="B343" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B344" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="B345" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="B347" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="B348" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="B349" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="B350" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="B351" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B356" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B360" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B361" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B362" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="B364" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="B366" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="B368" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B369" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="B370" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="B371" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="B372" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B373" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="B374" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B375" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="B376" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="B377" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="B379" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="B380" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="B381" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="B383" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="B384" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="B386" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="B387" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="B388" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="B389" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="B390" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B391" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="B392" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B393" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="B394" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="B396" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B397" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="B398" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B399" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="B400" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B401" t="s">
-        <v>92</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
